--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Freelancing Project\abusive\Abusive_Language_Detector\Abusive_Language_Detector\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Desktop\Github\Abusive_Language_Detector\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD71E52-C1A8-4B40-ABC2-3CA6E1786839}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDD1003-CC19-422A-934D-2AB9E6BDFD1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,15 +482,15 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="0.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -545,8 +545,8 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -587,8 +587,8 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
